--- a/security/checklist_security-lab3.xlsx
+++ b/security/checklist_security-lab3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Tên project</t>
   </si>
@@ -123,6 +123,9 @@
 - Trên URL, ID có mã hóa</t>
   </si>
   <si>
+    <t>NG</t>
+  </si>
+  <si>
     <t>Câu 2:
 - Màn hình update
 - Trên URL, ID có mã hóa
@@ -131,6 +134,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (      ) (chỉ copy giá trị trong ngoặc , không bao gồm dấu ngoặc
@@ -203,6 +212,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
@@ -240,6 +255,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
@@ -349,6 +370,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (ABCDE) (chỉ copy giá trị trong ngoặc , không bao gồm dấu ngoặc
@@ -1880,10 +1907,10 @@
   </sheetPr>
   <dimension ref="A1:AE898"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10:W10"/>
+      <selection pane="bottomLeft" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4351851851852" defaultRowHeight="15.75" customHeight="1"/>
@@ -1983,7 +2010,7 @@
       <c r="AC3" s="23"/>
       <c r="AD3" s="24" t="str">
         <f>"Point: "&amp;SUM(AD5:AD13)</f>
-        <v>Point: 8</v>
+        <v>Point: 6</v>
       </c>
       <c r="AE3" s="20"/>
     </row>
@@ -2111,14 +2138,14 @@
         <v>24</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
       <c r="AC6" s="25"/>
       <c r="AD6" s="26">
         <f>IF(Z6="OK",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="27"/>
     </row>
@@ -2128,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -2157,14 +2184,14 @@
         <v>24</v>
       </c>
       <c r="Z7" s="25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
       <c r="AC7" s="25"/>
       <c r="AD7" s="26">
         <f t="shared" ref="AD6:AD14" si="1">IF(Z7="OK",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="20"/>
     </row>
@@ -2174,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2219,7 +2246,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -2265,7 +2292,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2311,7 +2338,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -2357,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2403,7 +2430,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -2431,12 +2458,14 @@
       <c r="Y13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Z13" s="25"/>
+      <c r="Z13" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="26">
-        <f>IF(Z13="OK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE13" s="20"/>
@@ -5610,7 +5639,7 @@
     <mergeCell ref="C3:W4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5 Z6 Z7 Z8:Z9 Z10:Z11 Z12:Z13 Z14:Z28 AC5:AC28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z28 AC5:AC28">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
